--- a/Doc/Requirements Stack-5.xlsx
+++ b/Doc/Requirements Stack-5.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\581\581-main\i-kun\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F740D7-0CE1-4053-87EF-B9B5DDE215D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A2BF07-24E7-4530-9BFA-2F5C93EC9CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19320" yWindow="3510" windowWidth="32160" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4065" yWindow="3900" windowWidth="32160" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Requirement
  ID</t>
@@ -103,12 +116,6 @@
     <t>Story design</t>
   </si>
   <si>
-    <t>Particle effects</t>
-  </si>
-  <si>
-    <t>Shadow rendering</t>
-  </si>
-  <si>
     <t>Game Process Optimization</t>
   </si>
   <si>
@@ -120,12 +127,21 @@
   <si>
     <t>mini map</t>
   </si>
+  <si>
+    <t xml:space="preserve">Character Hp </t>
+  </si>
+  <si>
+    <t>Attacken Response</t>
+  </si>
+  <si>
+    <t>Snow particle</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -142,6 +158,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -173,6 +195,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -391,15 +416,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1013"/>
+  <dimension ref="A1:Z1014"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
@@ -1205,7 +1230,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
@@ -1281,10 +1306,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1">
         <v>6</v>
@@ -1319,7 +1344,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1">
         <v>5</v>
@@ -1348,25 +1373,25 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1386,19 +1411,19 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C27" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1">
         <v>7</v>
@@ -1424,16 +1449,16 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1">
         <v>13</v>
@@ -1467,11 +1492,21 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1492,13 +1527,13 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
-      <c r="Z29" s="3"/>
+      <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1520,7 +1555,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
+      <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -28655,32 +28690,32 @@
       <c r="Z999" s="1"/>
     </row>
     <row r="1000" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1000" s="3"/>
+      <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
       <c r="D1000" s="1"/>
-      <c r="E1000" s="3"/>
-      <c r="F1000" s="3"/>
-      <c r="G1000" s="3"/>
-      <c r="H1000" s="3"/>
-      <c r="I1000" s="3"/>
-      <c r="J1000" s="3"/>
-      <c r="K1000" s="3"/>
-      <c r="L1000" s="3"/>
-      <c r="M1000" s="3"/>
-      <c r="N1000" s="3"/>
-      <c r="O1000" s="3"/>
-      <c r="P1000" s="3"/>
-      <c r="Q1000" s="3"/>
-      <c r="R1000" s="3"/>
-      <c r="S1000" s="3"/>
-      <c r="T1000" s="3"/>
-      <c r="U1000" s="3"/>
-      <c r="V1000" s="3"/>
-      <c r="W1000" s="3"/>
-      <c r="X1000" s="3"/>
-      <c r="Y1000" s="3"/>
-      <c r="Z1000" s="3"/>
+      <c r="E1000" s="1"/>
+      <c r="F1000" s="1"/>
+      <c r="G1000" s="1"/>
+      <c r="H1000" s="1"/>
+      <c r="I1000" s="1"/>
+      <c r="J1000" s="1"/>
+      <c r="K1000" s="1"/>
+      <c r="L1000" s="1"/>
+      <c r="M1000" s="1"/>
+      <c r="N1000" s="1"/>
+      <c r="O1000" s="1"/>
+      <c r="P1000" s="1"/>
+      <c r="Q1000" s="1"/>
+      <c r="R1000" s="1"/>
+      <c r="S1000" s="1"/>
+      <c r="T1000" s="1"/>
+      <c r="U1000" s="1"/>
+      <c r="V1000" s="1"/>
+      <c r="W1000" s="1"/>
+      <c r="X1000" s="1"/>
+      <c r="Y1000" s="1"/>
+      <c r="Z1000" s="1"/>
     </row>
     <row r="1001" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1001" s="3"/>
@@ -29020,6 +29055,10 @@
     </row>
     <row r="1013" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1013" s="3"/>
+      <c r="B1013" s="1"/>
+      <c r="C1013" s="1"/>
+      <c r="D1013" s="1"/>
+      <c r="E1013" s="3"/>
       <c r="F1013" s="3"/>
       <c r="G1013" s="3"/>
       <c r="H1013" s="3"/>
@@ -29042,6 +29081,30 @@
       <c r="Y1013" s="3"/>
       <c r="Z1013" s="3"/>
     </row>
+    <row r="1014" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1014" s="3"/>
+      <c r="F1014" s="3"/>
+      <c r="G1014" s="3"/>
+      <c r="H1014" s="3"/>
+      <c r="I1014" s="3"/>
+      <c r="J1014" s="3"/>
+      <c r="K1014" s="3"/>
+      <c r="L1014" s="3"/>
+      <c r="M1014" s="3"/>
+      <c r="N1014" s="3"/>
+      <c r="O1014" s="3"/>
+      <c r="P1014" s="3"/>
+      <c r="Q1014" s="3"/>
+      <c r="R1014" s="3"/>
+      <c r="S1014" s="3"/>
+      <c r="T1014" s="3"/>
+      <c r="U1014" s="3"/>
+      <c r="V1014" s="3"/>
+      <c r="W1014" s="3"/>
+      <c r="X1014" s="3"/>
+      <c r="Y1014" s="3"/>
+      <c r="Z1014" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
